--- a/INTLINE/data/142/STANOR/old/12462 Producer price index Industry combined.xlsx
+++ b/INTLINE/data/142/STANOR/old/12462 Producer price index Industry combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="304">
   <x:si>
     <x:t>12462: Producer price index. Oil/ gas extraction, manufacturing, mining and electricity (2015=100), by month, industry/commodity group, market and contents</x:t>
   </x:si>
@@ -815,19 +815,28 @@
   </x:si>
   <x:si>
     <x:t>2021M11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M02</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Starting with the index for January 2019, published 11 February 2019, the reference year for PPI is changed to 2015 (2015 = 100). Previously published series with reference year 2015=100 is available in the archive and/or closed time series.
 </x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Producer price index (2015=100):</x:t>
   </x:si>
   <x:si>
-    <x:t>20211210 08:00</x:t>
+    <x:t>20220310 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -851,7 +860,7 @@
     <x:t>Håvard Georg Jensen, Statistics Norway</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> +47 40 90 26 96</x:t>
+    <x:t xml:space="preserve"> +47 40 90 26 86</x:t>
   </x:si>
   <x:si>
     <x:t>geo@ssb.no</x:t>
@@ -1310,14 +1319,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B327"/>
+  <x:dimension ref="A1:B330"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="34.370625" style="0" customWidth="1"/>
+    <x:col min="1" max="2" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
@@ -3444,202 +3452,229 @@
         <x:v>136.3</x:v>
       </x:c>
     </x:row>
+    <x:row r="269" spans="1:2">
+      <x:c r="A269" s="2" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B269" s="3" t="n">
+        <x:v>137.6</x:v>
+      </x:c>
+    </x:row>
     <x:row r="270" spans="1:2">
-      <x:c r="A270" s="4" t="s">
-        <x:v>267</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="272" spans="1:2">
-      <x:c r="A272" s="0" t="s">
+      <x:c r="A270" s="2" t="s">
         <x:v>268</x:v>
       </x:c>
+      <x:c r="B270" s="3" t="n">
+        <x:v>139.8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="271" spans="1:2">
+      <x:c r="A271" s="2" t="s">
+        <x:v>269</x:v>
+      </x:c>
+      <x:c r="B271" s="3" t="n">
+        <x:v>144.5</x:v>
+      </x:c>
     </x:row>
     <x:row r="273" spans="1:2">
-      <x:c r="A273" s="0" t="s">
-        <x:v>269</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="274" spans="1:2">
-      <x:c r="A274" s="0" t="s">
+      <x:c r="A273" s="4" t="s">
         <x:v>270</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="275" spans="1:2">
+      <x:c r="A275" s="0" t="s">
+        <x:v>271</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:2">
       <x:c r="A276" s="0" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:2">
       <x:c r="A277" s="0" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:2">
       <x:c r="A279" s="0" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:2">
       <x:c r="A280" s="0" t="s">
-        <x:v>269</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="281" spans="1:2">
-      <x:c r="A281" s="0" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:2">
       <x:c r="A282" s="0" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:2">
       <x:c r="A283" s="0" t="s">
-        <x:v>276</x:v>
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="284" spans="1:2">
+      <x:c r="A284" s="0" t="s">
+        <x:v>277</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:2">
       <x:c r="A285" s="0" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:2">
       <x:c r="A286" s="0" t="s">
-        <x:v>278</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="287" spans="1:2">
-      <x:c r="A287" s="0" t="s">
         <x:v>279</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="288" spans="1:2">
+      <x:c r="A288" s="0" t="s">
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:2">
       <x:c r="A289" s="0" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:2">
       <x:c r="A290" s="0" t="s">
-        <x:v>281</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="291" spans="1:2">
-      <x:c r="A291" s="0" t="s">
         <x:v>282</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="292" spans="1:2">
+      <x:c r="A292" s="0" t="s">
+        <x:v>283</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:2">
       <x:c r="A293" s="0" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:2">
       <x:c r="A294" s="0" t="s">
-        <x:v>284</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="295" spans="1:2">
-      <x:c r="A295" s="0" t="s">
         <x:v>285</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="296" spans="1:2">
+      <x:c r="A296" s="0" t="s">
+        <x:v>286</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:2">
       <x:c r="A297" s="0" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:2">
       <x:c r="A298" s="0" t="s">
-        <x:v>287</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="299" spans="1:2">
-      <x:c r="A299" s="0" t="s">
         <x:v>288</x:v>
       </x:c>
     </x:row>
-    <x:row r="303" spans="1:2">
-      <x:c r="A303" s="0" t="s">
+    <x:row r="300" spans="1:2">
+      <x:c r="A300" s="0" t="s">
         <x:v>289</x:v>
       </x:c>
     </x:row>
-    <x:row r="305" spans="1:2">
-      <x:c r="A305" s="0" t="s">
+    <x:row r="301" spans="1:2">
+      <x:c r="A301" s="0" t="s">
         <x:v>290</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="302" spans="1:2">
+      <x:c r="A302" s="0" t="s">
+        <x:v>291</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:2">
       <x:c r="A306" s="0" t="s">
-        <x:v>269</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="307" spans="1:2">
-      <x:c r="A307" s="0" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:2">
       <x:c r="A308" s="0" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:2">
       <x:c r="A309" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:2">
       <x:c r="A310" s="0" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="311" spans="1:2">
+      <x:c r="A311" s="0" t="s">
+        <x:v>295</x:v>
       </x:c>
     </x:row>
     <x:row r="312" spans="1:2">
       <x:c r="A312" s="0" t="s">
-        <x:v>294</x:v>
+        <x:v>272</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:2">
       <x:c r="A313" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="314" spans="1:2">
-      <x:c r="A314" s="0" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="315" spans="1:2">
+      <x:c r="A315" s="0" t="s">
+        <x:v>297</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:2">
       <x:c r="A316" s="0" t="s">
-        <x:v>269</x:v>
+        <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:2">
       <x:c r="A317" s="0" t="s">
-        <x:v>296</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="323" spans="1:2">
-      <x:c r="A323" s="0" t="s">
-        <x:v>297</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="324" spans="1:2">
-      <x:c r="A324" s="0" t="s">
         <x:v>298</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="319" spans="1:2">
+      <x:c r="A319" s="0" t="s">
+        <x:v>272</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="320" spans="1:2">
+      <x:c r="A320" s="0" t="s">
+        <x:v>299</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:2">
       <x:c r="A326" s="0" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:2">
       <x:c r="A327" s="0" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="329" spans="1:2">
+      <x:c r="A329" s="0" t="s">
+        <x:v>302</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="330" spans="1:2">
+      <x:c r="A330" s="0" t="s">
+        <x:v>303</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="1">
+    <x:mergeCell ref="A273:B273"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
